--- a/DATA_goal/Junction_Flooding_364.xlsx
+++ b/DATA_goal/Junction_Flooding_364.xlsx
@@ -446,10 +446,10 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="6" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
@@ -462,7 +462,7 @@
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="6" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
@@ -473,7 +473,7 @@
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>40751.00694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.28</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.53</v>
+        <v>5.27</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="F2" s="4" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="N2" s="4" t="n">
         <v>0.97</v>
       </c>
-      <c r="G2" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="J2" s="4" t="n">
+      <c r="O2" s="4" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>60.45</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="AE2" s="4" t="n">
         <v>0.37</v>
       </c>
-      <c r="K2" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AF2" s="4" t="n">
-        <v>0.85</v>
+        <v>8.52</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40751.01388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.08</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.56</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.85</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.44</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.77</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.57</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.91</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.7</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.73</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.45</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>2.67</v>
+        <v>26.67</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.43</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.68</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.4</v>
+        <v>4.04</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.34</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.75</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.81</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.68</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.18</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.34</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40751.02083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.5</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.73</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.56</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.49</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.21</v>
+        <v>12.09</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.33</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.55</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.4</v>
+        <v>3.99</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.59</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.71</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.89</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.57</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>4.39</v>
+        <v>43.91</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.82</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.12</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.4</v>
+        <v>4.05</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.2</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.74</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.11</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.38</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.42</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.09</v>
+        <v>10.91</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.75</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.39</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40751.02777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.85</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.15</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.1</v>
+        <v>10.99</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.34</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.21</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.53</v>
+        <v>15.26</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.49</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.64</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.23</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.68</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.18</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.84</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.6</v>
+        <v>5.95</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.28</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>5.54</v>
+        <v>55.43</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.57</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.64</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.62</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.77</v>
+        <v>7.7</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.36</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.14</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.19</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.38</v>
+        <v>13.8</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.16</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_364.xlsx
+++ b/DATA_goal/Junction_Flooding_364.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>40751.00694444445</v>
+        <v>45045.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.28</v>
+        <v>10.232</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.27</v>
+        <v>6.988</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.77</v>
+        <v>3.382</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.41</v>
+        <v>22.493</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>16.551</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.08</v>
+        <v>7.711</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>10.36</v>
+        <v>22.993</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>6.86</v>
+        <v>12.747</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.66</v>
+        <v>5.033</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.22</v>
+        <v>6.872</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.25</v>
+        <v>8.682</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.31</v>
+        <v>9.968</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.97</v>
+        <v>2.214</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.63</v>
+        <v>8.271000000000001</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.54</v>
+        <v>11.091</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.61</v>
+        <v>7.662</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.12</v>
+        <v>2.404</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.05</v>
+        <v>1.071</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>60.45</v>
+        <v>118.497</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>12.19</v>
+        <v>22.775</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.56</v>
+        <v>7.635</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>7.36</v>
+        <v>14.429</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.73</v>
+        <v>7.663</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.83</v>
+        <v>2.148</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>5.7</v>
+        <v>12.965</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>3.6</v>
+        <v>6.744</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.54</v>
+        <v>6.372</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.24</v>
+        <v>7.242</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.73</v>
+        <v>9.571</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.37</v>
+        <v>2.474</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>8.52</v>
+        <v>20.428</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.17</v>
+        <v>3.858</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.2</v>
+        <v>9.544</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>40751.01388888889</v>
+        <v>45045.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.08</v>
+        <v>22.356</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.56</v>
+        <v>16.537</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.42</v>
+        <v>1.957</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.24</v>
+        <v>49.025</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.85</v>
+        <v>39.408</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.44</v>
+        <v>17.406</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>8.77</v>
+        <v>64.995</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3.57</v>
+        <v>27.294</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.91</v>
+        <v>12.061</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.07</v>
+        <v>17.391</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.7</v>
+        <v>19.562</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.2</v>
+        <v>21.073</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.46</v>
+        <v>5.412</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.73</v>
+        <v>17.67</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.38</v>
+        <v>24.915</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.45</v>
+        <v>15.179</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.01</v>
+        <v>1.301</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>26.67</v>
+        <v>261.641</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>6.43</v>
+        <v>49.364</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.68</v>
+        <v>16.31</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>4.04</v>
+        <v>32.893</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.34</v>
+        <v>17.279</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.37</v>
+        <v>2.727</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>4.75</v>
+        <v>32.929</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.81</v>
+        <v>14.407</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.68</v>
+        <v>12.915</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.18</v>
+        <v>15.127</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.34</v>
+        <v>20.688</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.24</v>
+        <v>1.101</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>8.119999999999999</v>
+        <v>59.249</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.13</v>
+        <v>9.018000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.61</v>
+        <v>20.392</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>40751.02083333334</v>
+        <v>45045.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.76</v>
+        <v>14.245</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.5</v>
+        <v>10.559</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.36</v>
+        <v>1.231</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>8.73</v>
+        <v>31.314</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>7.56</v>
+        <v>25.129</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.49</v>
+        <v>11.077</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>12.09</v>
+        <v>46.248</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.33</v>
+        <v>17.408</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.55</v>
+        <v>7.751</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.99</v>
+        <v>11.042</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.59</v>
+        <v>12.512</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.71</v>
+        <v>13.482</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.89</v>
+        <v>3.436</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3</v>
+        <v>11.279</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.89</v>
+        <v>15.901</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.57</v>
+        <v>9.731999999999999</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.873</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.576</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>43.91</v>
+        <v>164.364</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>9.4</v>
+        <v>31.616</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.82</v>
+        <v>10.411</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>6.12</v>
+        <v>21.03</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.05</v>
+        <v>11.022</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.48</v>
+        <v>1.732</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>6.2</v>
+        <v>22.511</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.74</v>
+        <v>9.196</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.11</v>
+        <v>8.263</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.38</v>
+        <v>9.682</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.42</v>
+        <v>13.211</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.17</v>
+        <v>0.708</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>10.91</v>
+        <v>42.186</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.75</v>
+        <v>5.739</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.9</v>
+        <v>13.016</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40751.02777777778</v>
+        <v>45045.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.85</v>
+        <v>21.01</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.15</v>
+        <v>15.69</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.34</v>
+        <v>1.25</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>10.99</v>
+        <v>45.96</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>9.34</v>
+        <v>37.43</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.21</v>
+        <v>16.42</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>15.26</v>
+        <v>63.8</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.49</v>
+        <v>25.55</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.03</v>
+        <v>11.46</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.64</v>
+        <v>16.66</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.23</v>
+        <v>18.41</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.68</v>
+        <v>19.66</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.18</v>
+        <v>5.17</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.84</v>
+        <v>16.54</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.95</v>
+        <v>23.47</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.28</v>
+        <v>14</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.75</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>55.43</v>
+        <v>244.48</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>11.53</v>
+        <v>46.24</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.57</v>
+        <v>15.27</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7.64</v>
+        <v>31.03</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.62</v>
+        <v>16.29</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>2.35</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>7.7</v>
+        <v>31.37</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.36</v>
+        <v>13.49</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.47</v>
+        <v>11.98</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.14</v>
+        <v>14.07</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>5.19</v>
+        <v>19.39</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.14</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>13.8</v>
+        <v>57.89</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.16</v>
+        <v>8.56</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.77</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40751.03472222222</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>21.18</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>8.52</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.17</v>
+        <v>19.09</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_364.xlsx
+++ b/DATA_goal/Junction_Flooding_364.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45045.50694444445</v>
+        <v>40751.00694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>10.232</v>
+        <v>4.284</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.988</v>
+        <v>5.265</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.382</v>
+        <v>0.768</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>22.493</v>
+        <v>10.407</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>16.551</v>
+        <v>9.715</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>7.711</v>
+        <v>5.079</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>22.993</v>
+        <v>10.361</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>12.747</v>
+        <v>6.858</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.033</v>
+        <v>3.662</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.872</v>
+        <v>6.216</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.682</v>
+        <v>7.246</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>9.968</v>
+        <v>4.306</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.214</v>
+        <v>0.973</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8.271000000000001</v>
+        <v>3.629</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>11.091</v>
+        <v>6.538</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.662</v>
+        <v>2.613</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.404</v>
+        <v>0.117</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.071</v>
+        <v>0.053</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>118.497</v>
+        <v>60.452</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>22.775</v>
+        <v>12.195</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.635</v>
+        <v>3.56</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>14.429</v>
+        <v>7.364</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.663</v>
+        <v>6.727</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.148</v>
+        <v>0.825</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>12.965</v>
+        <v>5.701</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.744</v>
+        <v>3.6</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.372</v>
+        <v>5.538</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.242</v>
+        <v>2.243</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.571</v>
+        <v>6.732</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.474</v>
+        <v>0.372</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>20.428</v>
+        <v>8.518000000000001</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.858</v>
+        <v>2.17</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.544</v>
+        <v>5.204</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45045.51388888889</v>
+        <v>40751.01388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>22.356</v>
+        <v>2.08</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>16.537</v>
+        <v>2.559</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.957</v>
+        <v>0.418</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>49.025</v>
+        <v>5.241</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>39.408</v>
+        <v>4.853</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>17.406</v>
+        <v>2.443</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>64.995</v>
+        <v>8.766</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>27.294</v>
+        <v>3.568</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.061</v>
+        <v>1.911</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>17.391</v>
+        <v>3.071</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>19.562</v>
+        <v>3.699</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>21.073</v>
+        <v>2.201</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.412</v>
+        <v>0.458</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>17.67</v>
+        <v>1.725</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>24.915</v>
+        <v>3.384</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>15.179</v>
+        <v>1.447</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.301</v>
+        <v>0.013</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.9409999999999999</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>261.641</v>
+        <v>26.667</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>49.364</v>
+        <v>6.426</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>16.31</v>
+        <v>1.679</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>32.893</v>
+        <v>4.039</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>17.279</v>
+        <v>3.343</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.727</v>
+        <v>0.373</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>32.929</v>
+        <v>4.752</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>14.407</v>
+        <v>1.812</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12.915</v>
+        <v>2.678</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>15.127</v>
+        <v>1.181</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>20.688</v>
+        <v>3.339</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.101</v>
+        <v>0.237</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>59.249</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.018000000000001</v>
+        <v>1.13</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>20.392</v>
+        <v>2.605</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45045.52083333334</v>
+        <v>40751.02083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>14.245</v>
+        <v>3.762</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.559</v>
+        <v>3.496</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.231</v>
+        <v>0.362</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>31.314</v>
+        <v>8.728</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>25.129</v>
+        <v>7.556</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>11.077</v>
+        <v>3.488</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>46.248</v>
+        <v>12.087</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>17.408</v>
+        <v>5.33</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.751</v>
+        <v>2.548</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>11.042</v>
+        <v>3.987</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.512</v>
+        <v>4.588</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.482</v>
+        <v>3.709</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.436</v>
+        <v>0.891</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>11.279</v>
+        <v>3.005</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>15.901</v>
+        <v>4.888</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.731999999999999</v>
+        <v>2.574</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.873</v>
+        <v>0.028</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.576</v>
+        <v>0.033</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>164.364</v>
+        <v>43.91</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>31.616</v>
+        <v>9.404999999999999</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.411</v>
+        <v>2.818</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>21.03</v>
+        <v>6.121</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>11.022</v>
+        <v>4.048</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.732</v>
+        <v>0.482</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>22.511</v>
+        <v>6.203</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.196</v>
+        <v>2.745</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.263</v>
+        <v>3.11</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.682</v>
+        <v>2.382</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>13.211</v>
+        <v>4.424</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.708</v>
+        <v>0.175</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>42.186</v>
+        <v>10.912</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.739</v>
+        <v>1.755</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>13.016</v>
+        <v>3.904</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45045.52777777778</v>
+        <v>40751.02777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21.01</v>
+        <v>4.85</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.69</v>
+        <v>4.151</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.25</v>
+        <v>0.341</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>45.96</v>
+        <v>10.991</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>37.43</v>
+        <v>9.339</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>16.42</v>
+        <v>4.21</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>63.8</v>
+        <v>15.258</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>25.55</v>
+        <v>6.488</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.46</v>
+        <v>3.029</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>16.66</v>
+        <v>4.644</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>18.41</v>
+        <v>5.234</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>19.66</v>
+        <v>4.678</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.17</v>
+        <v>1.178</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16.54</v>
+        <v>3.841</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>23.47</v>
+        <v>5.953</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14</v>
+        <v>3.28</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.75</v>
+        <v>0.039</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.72</v>
+        <v>0.067</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>244.48</v>
+        <v>55.426</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>46.24</v>
+        <v>11.531</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.27</v>
+        <v>3.571</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>31.03</v>
+        <v>7.636</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>16.29</v>
+        <v>4.622</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.35</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>31.37</v>
+        <v>7.699</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.49</v>
+        <v>3.363</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.98</v>
+        <v>3.47</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>14.07</v>
+        <v>3.137</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>19.39</v>
+        <v>5.189</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.138</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>57.89</v>
+        <v>13.799</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.56</v>
+        <v>2.162</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>19.09</v>
+        <v>4.772</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>40751.03472222222</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>21.18</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>2.17</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_364.xlsx
+++ b/DATA_goal/Junction_Flooding_364.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>40751.00694444445</v>
+        <v>45045.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.284</v>
+        <v>10.232</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.265</v>
+        <v>6.988</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.768</v>
+        <v>3.382</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.407</v>
+        <v>22.493</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.715</v>
+        <v>16.551</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.079</v>
+        <v>7.711</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>10.361</v>
+        <v>22.993</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>6.858</v>
+        <v>12.747</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.662</v>
+        <v>5.033</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.216</v>
+        <v>6.872</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.246</v>
+        <v>8.682</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.306</v>
+        <v>9.968</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.973</v>
+        <v>2.214</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.629</v>
+        <v>8.271000000000001</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.538</v>
+        <v>11.091</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.613</v>
+        <v>7.662</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.117</v>
+        <v>2.404</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.053</v>
+        <v>1.071</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>60.452</v>
+        <v>118.497</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>12.195</v>
+        <v>22.775</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.56</v>
+        <v>7.635</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>7.364</v>
+        <v>14.429</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.727</v>
+        <v>7.663</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.825</v>
+        <v>2.148</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>5.701</v>
+        <v>12.965</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>3.6</v>
+        <v>6.744</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.538</v>
+        <v>6.372</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.243</v>
+        <v>7.242</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.732</v>
+        <v>9.571</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.372</v>
+        <v>2.474</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>8.518000000000001</v>
+        <v>20.428</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.17</v>
+        <v>3.858</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.204</v>
+        <v>9.544</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>40751.01388888889</v>
+        <v>45045.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.08</v>
+        <v>22.356</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.559</v>
+        <v>16.537</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.418</v>
+        <v>1.957</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.241</v>
+        <v>49.025</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.853</v>
+        <v>39.408</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.443</v>
+        <v>17.406</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>8.766</v>
+        <v>64.995</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3.568</v>
+        <v>27.294</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.911</v>
+        <v>12.061</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.071</v>
+        <v>17.391</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.699</v>
+        <v>19.562</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.201</v>
+        <v>21.073</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.458</v>
+        <v>5.412</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.725</v>
+        <v>17.67</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.384</v>
+        <v>24.915</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.447</v>
+        <v>15.179</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.013</v>
+        <v>1.301</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>26.667</v>
+        <v>261.641</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>6.426</v>
+        <v>49.364</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.679</v>
+        <v>16.31</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>4.039</v>
+        <v>32.893</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.343</v>
+        <v>17.279</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.373</v>
+        <v>2.727</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>4.752</v>
+        <v>32.929</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.812</v>
+        <v>14.407</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.678</v>
+        <v>12.915</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.181</v>
+        <v>15.127</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.339</v>
+        <v>20.688</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.237</v>
+        <v>1.101</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>8.119999999999999</v>
+        <v>59.249</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.13</v>
+        <v>9.018000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.605</v>
+        <v>20.392</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>40751.02083333334</v>
+        <v>45045.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.762</v>
+        <v>14.245</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.496</v>
+        <v>10.559</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.362</v>
+        <v>1.231</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>8.728</v>
+        <v>31.314</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>7.556</v>
+        <v>25.129</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.488</v>
+        <v>11.077</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>12.087</v>
+        <v>46.248</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.33</v>
+        <v>17.408</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.548</v>
+        <v>7.751</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.987</v>
+        <v>11.042</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.588</v>
+        <v>12.512</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.709</v>
+        <v>13.482</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.891</v>
+        <v>3.436</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.005</v>
+        <v>11.279</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.888</v>
+        <v>15.901</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.574</v>
+        <v>9.731999999999999</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.028</v>
+        <v>0.873</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.033</v>
+        <v>0.576</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>43.91</v>
+        <v>164.364</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>9.404999999999999</v>
+        <v>31.616</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.818</v>
+        <v>10.411</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>6.121</v>
+        <v>21.03</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.048</v>
+        <v>11.022</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.482</v>
+        <v>1.732</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>6.203</v>
+        <v>22.511</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.745</v>
+        <v>9.196</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.11</v>
+        <v>8.263</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.382</v>
+        <v>9.682</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.424</v>
+        <v>13.211</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.175</v>
+        <v>0.708</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>10.912</v>
+        <v>42.186</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.755</v>
+        <v>5.739</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.904</v>
+        <v>13.016</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40751.02777777778</v>
+        <v>45045.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.85</v>
+        <v>21.01</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.151</v>
+        <v>15.69</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.341</v>
+        <v>1.25</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>10.991</v>
+        <v>45.96</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>9.339</v>
+        <v>37.43</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.21</v>
+        <v>16.42</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>15.258</v>
+        <v>63.8</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.488</v>
+        <v>25.55</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.029</v>
+        <v>11.46</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.644</v>
+        <v>16.66</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.234</v>
+        <v>18.41</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.678</v>
+        <v>19.66</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.178</v>
+        <v>5.17</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.841</v>
+        <v>16.54</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.953</v>
+        <v>23.47</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.28</v>
+        <v>14</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.039</v>
+        <v>0.75</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.067</v>
+        <v>0.72</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>55.426</v>
+        <v>244.48</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>11.531</v>
+        <v>46.24</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.571</v>
+        <v>15.27</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7.636</v>
+        <v>31.03</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.622</v>
+        <v>16.29</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.5649999999999999</v>
+        <v>2.35</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>7.699</v>
+        <v>31.37</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.363</v>
+        <v>13.49</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.47</v>
+        <v>11.98</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.137</v>
+        <v>14.07</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>5.189</v>
+        <v>19.39</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.138</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>13.799</v>
+        <v>57.89</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.162</v>
+        <v>8.56</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.772</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40751.03472222222</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>21.18</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>8.52</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.17</v>
+        <v>19.09</v>
       </c>
     </row>
   </sheetData>
